--- a/dependencies/virus/belize/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/virus/belize/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstuber/workspace/vSNP/dependencies/virus/h7n3/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstuber/workspace/vSNP/dependencies/virus/belize/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA1D66C-CA97-BD48-B42C-95D675B73428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52DF1B-74C6-DA42-B9BE-001A09EA0B5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="460" windowWidth="21120" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="460" windowWidth="22040" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,12 +28,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Grouping</t>
   </si>
   <si>
     <t>Absolute position</t>
+  </si>
+  <si>
+    <t>KF767466.1-5383</t>
+  </si>
+  <si>
+    <t>vNDV-01</t>
+  </si>
+  <si>
+    <t>vNDV-02</t>
+  </si>
+  <si>
+    <t>KF767466.1-5425</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1068,6 +1080,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
